--- a/Code/Results/Cases/Case_0_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01569702708341225</v>
+        <v>0.008488266239329079</v>
       </c>
       <c r="D2">
-        <v>0.04306396048192096</v>
+        <v>0.147827731758789</v>
       </c>
       <c r="E2">
-        <v>0.02732904104558154</v>
+        <v>0.1135573271574626</v>
       </c>
       <c r="F2">
-        <v>1.296848275766081</v>
+        <v>1.400038456624614</v>
       </c>
       <c r="G2">
-        <v>0.0007615263010107222</v>
+        <v>0.002424900010206532</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.940818468752866</v>
+        <v>0.7882384439840138</v>
       </c>
       <c r="J2">
-        <v>0.02410541853283465</v>
+        <v>0.1163116416311372</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.855983722269841</v>
+        <v>1.206544292833215</v>
       </c>
       <c r="N2">
-        <v>3.971944705459492</v>
+        <v>1.784330733312515</v>
       </c>
       <c r="O2">
-        <v>4.042406676072233</v>
+        <v>3.624970334784166</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01389563656406878</v>
+        <v>0.007891070831320235</v>
       </c>
       <c r="D3">
-        <v>0.04470164749143457</v>
+        <v>0.1491069583724691</v>
       </c>
       <c r="E3">
-        <v>0.02986605180930724</v>
+        <v>0.1153581644060511</v>
       </c>
       <c r="F3">
-        <v>1.158368319036356</v>
+        <v>1.378893910803924</v>
       </c>
       <c r="G3">
-        <v>0.0007677941031747575</v>
+        <v>0.002429126498985901</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8299590981973992</v>
+        <v>0.7670961059577763</v>
       </c>
       <c r="J3">
-        <v>0.02751824364275768</v>
+        <v>0.1187886322385552</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.489866750036299</v>
+        <v>1.09172960567868</v>
       </c>
       <c r="N3">
-        <v>3.541269193503183</v>
+        <v>1.642726360592775</v>
       </c>
       <c r="O3">
-        <v>3.576269215321759</v>
+        <v>3.540307590685927</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01278969396848595</v>
+        <v>0.007521218297984689</v>
       </c>
       <c r="D4">
-        <v>0.04576294077478504</v>
+        <v>0.1499363750038172</v>
       </c>
       <c r="E4">
-        <v>0.03151943494072418</v>
+        <v>0.1165243555414466</v>
       </c>
       <c r="F4">
-        <v>1.076047714530276</v>
+        <v>1.366889109471728</v>
       </c>
       <c r="G4">
-        <v>0.0007717617522440115</v>
+        <v>0.002431861185832088</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7636322926688379</v>
+        <v>0.7546733297920909</v>
       </c>
       <c r="J4">
-        <v>0.02977388647259893</v>
+        <v>0.1203946575050487</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.2649941375428</v>
+        <v>1.021101487973297</v>
       </c>
       <c r="N4">
-        <v>3.277482617330691</v>
+        <v>1.555982062698575</v>
       </c>
       <c r="O4">
-        <v>3.297854219554807</v>
+        <v>3.490890437310213</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01233885459413031</v>
+        <v>0.00736970608735632</v>
       </c>
       <c r="D5">
-        <v>0.04620920344282542</v>
+        <v>0.1502854356882051</v>
       </c>
       <c r="E5">
-        <v>0.03221642698749605</v>
+        <v>0.1170147812078239</v>
       </c>
       <c r="F5">
-        <v>1.04311934668597</v>
+        <v>1.362242167891523</v>
       </c>
       <c r="G5">
-        <v>0.0007734094722087108</v>
+        <v>0.002433010811566632</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7369976392995667</v>
+        <v>0.7497508901908816</v>
       </c>
       <c r="J5">
-        <v>0.03073142181007071</v>
+        <v>0.1210704882305862</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.17331726882874</v>
+        <v>0.9922894490069609</v>
       </c>
       <c r="N5">
-        <v>3.170131148477282</v>
+        <v>1.520687862725822</v>
       </c>
       <c r="O5">
-        <v>3.186165205184551</v>
+        <v>3.471395350939758</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01226397821164937</v>
+        <v>0.007344499725821407</v>
       </c>
       <c r="D6">
-        <v>0.04628413028387102</v>
+        <v>0.1503440656711272</v>
       </c>
       <c r="E6">
-        <v>0.03233354130352062</v>
+        <v>0.117097133295389</v>
       </c>
       <c r="F6">
-        <v>1.037687186035882</v>
+        <v>1.361485327040754</v>
       </c>
       <c r="G6">
-        <v>0.0007736849645877592</v>
+        <v>0.002433203836562355</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7325975510502758</v>
+        <v>0.7489419590860322</v>
       </c>
       <c r="J6">
-        <v>0.03089268122036648</v>
+        <v>0.1211839982562353</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.15809145500765</v>
+        <v>0.9875034644110485</v>
       </c>
       <c r="N6">
-        <v>3.152313662334876</v>
+        <v>1.514830721491961</v>
       </c>
       <c r="O6">
-        <v>3.167720683886927</v>
+        <v>3.468196958834596</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01278361467374722</v>
+        <v>0.007519178163288842</v>
       </c>
       <c r="D7">
-        <v>0.04576890375637577</v>
+        <v>0.1499410377353017</v>
       </c>
       <c r="E7">
-        <v>0.03152874184494059</v>
+        <v>0.1165309080932164</v>
       </c>
       <c r="F7">
-        <v>1.075601208774728</v>
+        <v>1.366825447836661</v>
       </c>
       <c r="G7">
-        <v>0.0007717838477918928</v>
+        <v>0.002431876547426568</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7632715486301507</v>
+        <v>0.7546063781568151</v>
       </c>
       <c r="J7">
-        <v>0.02978664735325731</v>
+        <v>0.1204036855631214</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.263757936468778</v>
+        <v>1.020713038885617</v>
       </c>
       <c r="N7">
-        <v>3.276034280572276</v>
+        <v>1.555505845302491</v>
       </c>
       <c r="O7">
-        <v>3.296341031819082</v>
+        <v>3.490624920344487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01507576478458006</v>
+        <v>0.008283013487258017</v>
       </c>
       <c r="D8">
-        <v>0.04361691638530463</v>
+        <v>0.1482596906185996</v>
       </c>
       <c r="E8">
-        <v>0.02818344104868942</v>
+        <v>0.1141656981385006</v>
       </c>
       <c r="F8">
-        <v>1.248499531869371</v>
+        <v>1.392544319202926</v>
       </c>
       <c r="G8">
-        <v>0.0007636632601154279</v>
+        <v>0.002426328396882081</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9022054089948028</v>
+        <v>0.7808322671466499</v>
       </c>
       <c r="J8">
-        <v>0.02524772616113058</v>
+        <v>0.1171480082433058</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.729749048391525</v>
+        <v>1.166984953600021</v>
       </c>
       <c r="N8">
-        <v>3.823300231446723</v>
+        <v>1.735466194695022</v>
       </c>
       <c r="O8">
-        <v>3.879944192387541</v>
+        <v>3.595244500033175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01958104249352033</v>
+        <v>0.009755641532038339</v>
       </c>
       <c r="D9">
-        <v>0.03985056291755695</v>
+        <v>0.1453108917029016</v>
       </c>
       <c r="E9">
-        <v>0.02242137578451686</v>
+        <v>0.1100078062522154</v>
       </c>
       <c r="F9">
-        <v>1.612100284355733</v>
+        <v>1.450781054322235</v>
       </c>
       <c r="G9">
-        <v>0.0007486406710484456</v>
+        <v>0.00241655101824274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.190621859358728</v>
+        <v>0.8367227668455257</v>
       </c>
       <c r="J9">
-        <v>0.01771005136126425</v>
+        <v>0.1114412321123766</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.644054535043082</v>
+        <v>1.452683323597938</v>
       </c>
       <c r="N9">
-        <v>4.90269907086963</v>
+        <v>2.089802097659685</v>
       </c>
       <c r="O9">
-        <v>5.095710698624885</v>
+        <v>3.820891310451714</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02291203642320028</v>
+        <v>0.01082217687547882</v>
       </c>
       <c r="D10">
-        <v>0.03737667872645334</v>
+        <v>0.143355955445476</v>
       </c>
       <c r="E10">
-        <v>0.01873199532073988</v>
+        <v>0.1072463413851232</v>
       </c>
       <c r="F10">
-        <v>1.898887271633043</v>
+        <v>1.498388701719477</v>
       </c>
       <c r="G10">
-        <v>0.0007380867226396633</v>
+        <v>0.002410032457149093</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.415542600029724</v>
+        <v>0.8805504301261919</v>
       </c>
       <c r="J10">
-        <v>0.01314055014247595</v>
+        <v>0.107664179182585</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.317899976939373</v>
+        <v>1.661780514785562</v>
       </c>
       <c r="N10">
-        <v>5.701235280541766</v>
+        <v>2.350816333304238</v>
       </c>
       <c r="O10">
-        <v>6.046887599352431</v>
+        <v>3.999363216879658</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02443559182557209</v>
+        <v>0.01130403021591064</v>
       </c>
       <c r="D11">
-        <v>0.03631894340495867</v>
+        <v>0.142512367649321</v>
       </c>
       <c r="E11">
-        <v>0.01718548713970014</v>
+        <v>0.1060538909735231</v>
       </c>
       <c r="F11">
-        <v>2.034786067474442</v>
+        <v>1.521107967837082</v>
       </c>
       <c r="G11">
-        <v>0.0007333739330901423</v>
+        <v>0.002407209822184543</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.521511286209389</v>
+        <v>0.9010992244748763</v>
       </c>
       <c r="J11">
-        <v>0.01130543226377068</v>
+        <v>0.1060367339144976</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.625378501087241</v>
+        <v>1.756707513715611</v>
       </c>
       <c r="N11">
-        <v>6.066138408188863</v>
+        <v>2.46966906419766</v>
       </c>
       <c r="O11">
-        <v>6.49579496379431</v>
+        <v>4.083354593130366</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02501404495925641</v>
+        <v>0.01148601625681778</v>
       </c>
       <c r="D12">
-        <v>0.03592850709004347</v>
+        <v>0.1421994861815872</v>
       </c>
       <c r="E12">
-        <v>0.01662007529673271</v>
+        <v>0.1056115221743967</v>
       </c>
       <c r="F12">
-        <v>2.087137899163451</v>
+        <v>1.529864966532756</v>
       </c>
       <c r="G12">
-        <v>0.0007316005002232053</v>
+        <v>0.00240616136486588</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.562240219863057</v>
+        <v>0.9089691419266899</v>
       </c>
       <c r="J12">
-        <v>0.01064862448405446</v>
+        <v>0.1054335652627474</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.741992207599637</v>
+        <v>1.792623980930188</v>
       </c>
       <c r="N12">
-        <v>6.204592746680476</v>
+        <v>2.51468852519406</v>
       </c>
       <c r="O12">
-        <v>6.668452352112183</v>
+        <v>4.115566264745098</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02488939174208582</v>
+        <v>0.01144684378085259</v>
       </c>
       <c r="D13">
-        <v>0.03601213874054476</v>
+        <v>0.1422665788642348</v>
       </c>
       <c r="E13">
-        <v>0.01674092650576886</v>
+        <v>0.1057063853499809</v>
       </c>
       <c r="F13">
-        <v>2.075821575203875</v>
+        <v>1.527972138919353</v>
       </c>
       <c r="G13">
-        <v>0.0007319819681380624</v>
+        <v>0.002406386262673441</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.553440495133515</v>
+        <v>0.9072702668385659</v>
       </c>
       <c r="J13">
-        <v>0.0107883326755922</v>
+        <v>0.1055628844276564</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.716868689723327</v>
+        <v>1.784890118116863</v>
       </c>
       <c r="N13">
-        <v>6.174761338828546</v>
+        <v>2.504992288223264</v>
       </c>
       <c r="O13">
-        <v>6.631143212563643</v>
+        <v>4.10861080482789</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02448314914139615</v>
+        <v>0.01131901198759522</v>
       </c>
       <c r="D14">
-        <v>0.03628661717213388</v>
+        <v>0.1424864951362286</v>
       </c>
       <c r="E14">
-        <v>0.01713855759373084</v>
+        <v>0.1060173128123711</v>
       </c>
       <c r="F14">
-        <v>2.039074590141482</v>
+        <v>1.521825325449427</v>
       </c>
       <c r="G14">
-        <v>0.0007332278163826311</v>
+        <v>0.002407123156445686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.52484957382228</v>
+        <v>0.9017449093747985</v>
       </c>
       <c r="J14">
-        <v>0.01125061382270109</v>
+        <v>0.1059868477920407</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.634968543288281</v>
+        <v>1.759663006085361</v>
       </c>
       <c r="N14">
-        <v>6.077523425155277</v>
+        <v>2.473372615325957</v>
       </c>
       <c r="O14">
-        <v>6.509944117375596</v>
+        <v>4.085996514550231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0242345214944919</v>
+        <v>0.01124064851521922</v>
       </c>
       <c r="D15">
-        <v>0.03645607088810987</v>
+        <v>0.142622055176469</v>
       </c>
       <c r="E15">
-        <v>0.01738479017809635</v>
+        <v>0.1062089617409128</v>
       </c>
       <c r="F15">
-        <v>2.016685290402052</v>
+        <v>1.518080269959796</v>
       </c>
       <c r="G15">
-        <v>0.00073399234585273</v>
+        <v>0.002407577180612424</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.507417452415226</v>
+        <v>0.8983720167590974</v>
       </c>
       <c r="J15">
-        <v>0.01153883388917842</v>
+        <v>0.1062482466045118</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.584826918253199</v>
+        <v>1.744206643302647</v>
       </c>
       <c r="N15">
-        <v>6.017999164047694</v>
+        <v>2.45400615902696</v>
       </c>
       <c r="O15">
-        <v>6.43606389426543</v>
+        <v>4.072197560400582</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0228126620531981</v>
+        <v>0.010790619489363</v>
       </c>
       <c r="D16">
-        <v>0.03744719698316823</v>
+        <v>0.1434120052682972</v>
       </c>
       <c r="E16">
-        <v>0.01883582137602824</v>
+        <v>0.1073255552976518</v>
       </c>
       <c r="F16">
-        <v>1.890124364019144</v>
+        <v>1.496925401401029</v>
       </c>
       <c r="G16">
-        <v>0.0007383963662960875</v>
+        <v>0.00241021978539305</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.408697071725598</v>
+        <v>0.8792198733739696</v>
       </c>
       <c r="J16">
-        <v>0.01326563838963413</v>
+        <v>0.1077723678236264</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.297828025524012</v>
+        <v>1.655572713001007</v>
       </c>
       <c r="N16">
-        <v>5.677424174893645</v>
+        <v>2.343051004704932</v>
       </c>
       <c r="O16">
-        <v>6.017904483399604</v>
+        <v>3.993930837959624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02194273730097507</v>
+        <v>0.01051368827565113</v>
       </c>
       <c r="D17">
-        <v>0.03807280532700075</v>
+        <v>0.1439083190415928</v>
       </c>
       <c r="E17">
-        <v>0.01976061005174379</v>
+        <v>0.1080268913235405</v>
       </c>
       <c r="F17">
-        <v>1.813949459652505</v>
+        <v>1.484220328986396</v>
       </c>
       <c r="G17">
-        <v>0.0007411196785311508</v>
+        <v>0.002411877408996095</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.349121971815691</v>
+        <v>0.8676276805007461</v>
       </c>
       <c r="J17">
-        <v>0.0143894737392487</v>
+        <v>0.1087306532838053</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.122033611065518</v>
+        <v>1.601147495867295</v>
       </c>
       <c r="N17">
-        <v>5.468938877383664</v>
+        <v>2.275010344358236</v>
       </c>
       <c r="O17">
-        <v>5.765756750905098</v>
+        <v>3.946636799236046</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02144313650264706</v>
+        <v>0.01035409261719877</v>
       </c>
       <c r="D18">
-        <v>0.03843898154515291</v>
+        <v>0.1441980896884514</v>
       </c>
       <c r="E18">
-        <v>0.02030484941600386</v>
+        <v>0.1084362809483383</v>
       </c>
       <c r="F18">
-        <v>1.770640425876181</v>
+        <v>1.477012639847317</v>
       </c>
       <c r="G18">
-        <v>0.0007426944604190721</v>
+        <v>0.002412844267450758</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.315194622056922</v>
+        <v>0.8610176654635211</v>
       </c>
       <c r="J18">
-        <v>0.01505860018567784</v>
+        <v>0.1092903724761527</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.021007185860213</v>
+        <v>1.569825602467191</v>
       </c>
       <c r="N18">
-        <v>5.349176059653018</v>
+        <v>2.23588632496768</v>
       </c>
       <c r="O18">
-        <v>5.622232007796185</v>
+        <v>3.919698239223635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02127410084747083</v>
+        <v>0.01030000278318255</v>
       </c>
       <c r="D19">
-        <v>0.0385640409291268</v>
+        <v>0.1442969405230428</v>
       </c>
       <c r="E19">
-        <v>0.02049119949268507</v>
+        <v>0.1085759231296799</v>
       </c>
       <c r="F19">
-        <v>1.756060314718681</v>
+        <v>1.474589374899978</v>
       </c>
       <c r="G19">
-        <v>0.0007432291411038145</v>
+        <v>0.002413173940212523</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.303763387820752</v>
+        <v>0.8587894861112915</v>
       </c>
       <c r="J19">
-        <v>0.01528896843126271</v>
+        <v>0.1094813485190222</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.986814912961023</v>
+        <v>1.559217546525247</v>
       </c>
       <c r="N19">
-        <v>5.308651539453024</v>
+        <v>2.22264165066963</v>
       </c>
       <c r="O19">
-        <v>5.573885673472603</v>
+        <v>3.91062251474716</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02203526167994596</v>
+        <v>0.01054320041282608</v>
       </c>
       <c r="D20">
-        <v>0.03800554915911647</v>
+        <v>0.143855040194514</v>
       </c>
       <c r="E20">
-        <v>0.01966088024879786</v>
+        <v>0.1079516118286188</v>
       </c>
       <c r="F20">
-        <v>1.822005421560732</v>
+        <v>1.485562456189982</v>
       </c>
       <c r="G20">
-        <v>0.0007408289177363303</v>
+        <v>0.002411699562096265</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.355428267330424</v>
+        <v>0.8688557329248425</v>
       </c>
       <c r="J20">
-        <v>0.014267465985355</v>
+        <v>0.1086277580094119</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.140738047830098</v>
+        <v>1.606943030065082</v>
       </c>
       <c r="N20">
-        <v>5.491116463647586</v>
+        <v>2.282252263305168</v>
       </c>
       <c r="O20">
-        <v>5.792440340914538</v>
+        <v>3.951644016177795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02460242852908578</v>
+        <v>0.0113565723817004</v>
       </c>
       <c r="D21">
-        <v>0.0362057187800886</v>
+        <v>0.1424217222347988</v>
       </c>
       <c r="E21">
-        <v>0.01702120445335642</v>
+        <v>0.105925736417535</v>
       </c>
       <c r="F21">
-        <v>2.049843001603222</v>
+        <v>1.523626614454457</v>
       </c>
       <c r="G21">
-        <v>0.0007328615893086831</v>
+        <v>0.002406906159684641</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.533230467444909</v>
+        <v>0.9033654330135192</v>
       </c>
       <c r="J21">
-        <v>0.01111377034551309</v>
+        <v>0.1058619632128321</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.659019394856429</v>
+        <v>1.767073664613548</v>
       </c>
       <c r="N21">
-        <v>6.106076823798105</v>
+        <v>2.482659773179762</v>
       </c>
       <c r="O21">
-        <v>6.54546803198275</v>
+        <v>4.092627839675799</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02628923267808148</v>
+        <v>0.01188535033613647</v>
       </c>
       <c r="D22">
-        <v>0.03508852584801669</v>
+        <v>0.1415232395141148</v>
       </c>
       <c r="E22">
-        <v>0.01541452501763185</v>
+        <v>0.1046552631894868</v>
       </c>
       <c r="F22">
-        <v>2.203993694579751</v>
+        <v>1.549400101355033</v>
       </c>
       <c r="G22">
-        <v>0.000727718944353819</v>
+        <v>0.002403892330147814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.652978202278177</v>
+        <v>0.9264358581785501</v>
       </c>
       <c r="J22">
-        <v>0.009276427332571835</v>
+        <v>0.1041307966227327</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.998809354610103</v>
+        <v>1.871550299196741</v>
       </c>
       <c r="N22">
-        <v>6.509602644492759</v>
+        <v>2.613708692680348</v>
       </c>
       <c r="O22">
-        <v>7.053336228003445</v>
+        <v>4.187136482930725</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02538801182955552</v>
+        <v>0.01160338984271903</v>
       </c>
       <c r="D23">
-        <v>0.03567925141168082</v>
+        <v>0.1419992772319489</v>
       </c>
       <c r="E23">
-        <v>0.01626075335566179</v>
+        <v>0.1053284323419059</v>
       </c>
       <c r="F23">
-        <v>2.121201870088271</v>
+        <v>1.53556197464647</v>
       </c>
       <c r="G23">
-        <v>0.0007304583064506936</v>
+        <v>0.00240549001961083</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.588715092021175</v>
+        <v>0.9140752865017276</v>
       </c>
       <c r="J23">
-        <v>0.01023548296690313</v>
+        <v>0.1050477389061326</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.817344141077712</v>
+        <v>1.815806314762682</v>
       </c>
       <c r="N23">
-        <v>6.294072495669866</v>
+        <v>2.543760284409359</v>
       </c>
       <c r="O23">
-        <v>6.780718750696735</v>
+        <v>4.136477876668323</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02199342977993979</v>
+        <v>0.01052985917290528</v>
       </c>
       <c r="D24">
-        <v>0.03803593543697747</v>
+        <v>0.1438791137516173</v>
       </c>
       <c r="E24">
-        <v>0.01970592904665325</v>
+        <v>0.1079856264326651</v>
       </c>
       <c r="F24">
-        <v>1.818361818739632</v>
+        <v>1.484955379571375</v>
       </c>
       <c r="G24">
-        <v>0.0007409603422378469</v>
+        <v>0.002411779923527806</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.352576190163305</v>
+        <v>0.8683003607368818</v>
       </c>
       <c r="J24">
-        <v>0.0143225542231824</v>
+        <v>0.1086742495931841</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.132281650138879</v>
+        <v>1.604322968870179</v>
       </c>
       <c r="N24">
-        <v>5.481089673903682</v>
+        <v>2.278978211791753</v>
       </c>
       <c r="O24">
-        <v>5.780372234586878</v>
+        <v>3.94937947048345</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01835970309284107</v>
+        <v>0.009359961063456268</v>
       </c>
       <c r="D25">
-        <v>0.04081924212539545</v>
+        <v>0.1460714127853679</v>
       </c>
       <c r="E25">
-        <v>0.02388903175359847</v>
+        <v>0.1110811530826048</v>
       </c>
       <c r="F25">
-        <v>1.510650823160404</v>
+        <v>1.434184538676519</v>
       </c>
       <c r="G25">
-        <v>0.0007526146679625207</v>
+        <v>0.002419078777137697</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.110567096481802</v>
+        <v>0.8211206256214325</v>
       </c>
       <c r="J25">
-        <v>0.01958971451445857</v>
+        <v>0.1129122541046845</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.396484632880799</v>
+        <v>1.375527898481025</v>
       </c>
       <c r="N25">
-        <v>4.609861442150077</v>
+        <v>1.993811236618569</v>
       </c>
       <c r="O25">
-        <v>4.757764842246672</v>
+        <v>3.757633974406986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.008488266239329079</v>
+        <v>0.01569702708357568</v>
       </c>
       <c r="D2">
-        <v>0.147827731758789</v>
+        <v>0.04306396048199468</v>
       </c>
       <c r="E2">
-        <v>0.1135573271574626</v>
+        <v>0.02732904104559464</v>
       </c>
       <c r="F2">
-        <v>1.400038456624614</v>
+        <v>1.296848275766081</v>
       </c>
       <c r="G2">
-        <v>0.002424900010206532</v>
+        <v>0.0007615263010783968</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7882384439840138</v>
+        <v>0.9408184687528802</v>
       </c>
       <c r="J2">
-        <v>0.1163116416311372</v>
+        <v>0.02410541853283199</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.206544292833215</v>
+        <v>2.855983722269826</v>
       </c>
       <c r="N2">
-        <v>1.784330733312515</v>
+        <v>3.971944705459634</v>
       </c>
       <c r="O2">
-        <v>3.624970334784166</v>
+        <v>4.042406676072289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007891070831320235</v>
+        <v>0.01389563656391246</v>
       </c>
       <c r="D3">
-        <v>0.1491069583724691</v>
+        <v>0.04470164749135686</v>
       </c>
       <c r="E3">
-        <v>0.1153581644060511</v>
+        <v>0.02986605180933433</v>
       </c>
       <c r="F3">
-        <v>1.378893910803924</v>
+        <v>1.158368319036356</v>
       </c>
       <c r="G3">
-        <v>0.002429126498985901</v>
+        <v>0.000767794103165631</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7670961059577763</v>
+        <v>0.8299590981974063</v>
       </c>
       <c r="J3">
-        <v>0.1187886322385552</v>
+        <v>0.0275182436428909</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.09172960567868</v>
+        <v>2.489866750036299</v>
       </c>
       <c r="N3">
-        <v>1.642726360592775</v>
+        <v>3.541269193503325</v>
       </c>
       <c r="O3">
-        <v>3.540307590685927</v>
+        <v>3.576269215321645</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007521218297984689</v>
+        <v>0.01278969396874885</v>
       </c>
       <c r="D4">
-        <v>0.1499363750038172</v>
+        <v>0.04576294077485943</v>
       </c>
       <c r="E4">
-        <v>0.1165243555414466</v>
+        <v>0.03151943494072418</v>
       </c>
       <c r="F4">
-        <v>1.366889109471728</v>
+        <v>1.076047714530276</v>
       </c>
       <c r="G4">
-        <v>0.002431861185832088</v>
+        <v>0.0007717617522444878</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7546733297920909</v>
+        <v>0.7636322926688237</v>
       </c>
       <c r="J4">
-        <v>0.1203946575050487</v>
+        <v>0.0297738864726389</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.021101487973297</v>
+        <v>2.2649941375428</v>
       </c>
       <c r="N4">
-        <v>1.555982062698575</v>
+        <v>3.277482617330691</v>
       </c>
       <c r="O4">
-        <v>3.490890437310213</v>
+        <v>3.297854219554807</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.00736970608735632</v>
+        <v>0.01233885459413386</v>
       </c>
       <c r="D5">
-        <v>0.1502854356882051</v>
+        <v>0.04620920344294088</v>
       </c>
       <c r="E5">
-        <v>0.1170147812078239</v>
+        <v>0.03221642698749605</v>
       </c>
       <c r="F5">
-        <v>1.362242167891523</v>
+        <v>1.04311934668597</v>
       </c>
       <c r="G5">
-        <v>0.002433010811566632</v>
+        <v>0.0007734094722728986</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7497508901908816</v>
+        <v>0.7369976392995596</v>
       </c>
       <c r="J5">
-        <v>0.1210704882305862</v>
+        <v>0.03073142181012978</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9922894490069609</v>
+        <v>2.173317268828768</v>
       </c>
       <c r="N5">
-        <v>1.520687862725822</v>
+        <v>3.17013114847714</v>
       </c>
       <c r="O5">
-        <v>3.471395350939758</v>
+        <v>3.186165205184579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007344499725821407</v>
+        <v>0.01226397821168135</v>
       </c>
       <c r="D6">
-        <v>0.1503440656711272</v>
+        <v>0.0462841302839363</v>
       </c>
       <c r="E6">
-        <v>0.117097133295389</v>
+        <v>0.03233354130351551</v>
       </c>
       <c r="F6">
-        <v>1.361485327040754</v>
+        <v>1.037687186035896</v>
       </c>
       <c r="G6">
-        <v>0.002433203836562355</v>
+        <v>0.0007736849646218367</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7489419590860322</v>
+        <v>0.7325975510502829</v>
       </c>
       <c r="J6">
-        <v>0.1211839982562353</v>
+        <v>0.0308926812203012</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9875034644110485</v>
+        <v>2.158091455007636</v>
       </c>
       <c r="N6">
-        <v>1.514830721491961</v>
+        <v>3.152313662334876</v>
       </c>
       <c r="O6">
-        <v>3.468196958834596</v>
+        <v>3.167720683886984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007519178163288842</v>
+        <v>0.01278361467375078</v>
       </c>
       <c r="D7">
-        <v>0.1499410377353017</v>
+        <v>0.04576890375637843</v>
       </c>
       <c r="E7">
-        <v>0.1165309080932164</v>
+        <v>0.03152874184494214</v>
       </c>
       <c r="F7">
-        <v>1.366825447836661</v>
+        <v>1.075601208774728</v>
       </c>
       <c r="G7">
-        <v>0.002431876547426568</v>
+        <v>0.0007717838478634879</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7546063781568151</v>
+        <v>0.7632715486301578</v>
       </c>
       <c r="J7">
-        <v>0.1204036855631214</v>
+        <v>0.02978664735319514</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.020713038885617</v>
+        <v>2.26375793646875</v>
       </c>
       <c r="N7">
-        <v>1.555505845302491</v>
+        <v>3.276034280572162</v>
       </c>
       <c r="O7">
-        <v>3.490624920344487</v>
+        <v>3.296341031819082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008283013487258017</v>
+        <v>0.01507576478473283</v>
       </c>
       <c r="D8">
-        <v>0.1482596906185996</v>
+        <v>0.04361691638530885</v>
       </c>
       <c r="E8">
-        <v>0.1141656981385006</v>
+        <v>0.02818344104867165</v>
       </c>
       <c r="F8">
-        <v>1.392544319202926</v>
+        <v>1.248499531869371</v>
       </c>
       <c r="G8">
-        <v>0.002426328396882081</v>
+        <v>0.0007636632600485173</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7808322671466499</v>
+        <v>0.9022054089948313</v>
       </c>
       <c r="J8">
-        <v>0.1171480082433058</v>
+        <v>0.02524772616111193</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.166984953600021</v>
+        <v>2.72974904839154</v>
       </c>
       <c r="N8">
-        <v>1.735466194695022</v>
+        <v>3.82330023144678</v>
       </c>
       <c r="O8">
-        <v>3.595244500033175</v>
+        <v>3.879944192387541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.009755641532038339</v>
+        <v>0.01958104249381165</v>
       </c>
       <c r="D9">
-        <v>0.1453108917029016</v>
+        <v>0.03985056291764044</v>
       </c>
       <c r="E9">
-        <v>0.1100078062522154</v>
+        <v>0.02242137578450243</v>
       </c>
       <c r="F9">
-        <v>1.450781054322235</v>
+        <v>1.612100284355733</v>
       </c>
       <c r="G9">
-        <v>0.00241655101824274</v>
+        <v>0.0007486406710639679</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8367227668455257</v>
+        <v>1.190621859358728</v>
       </c>
       <c r="J9">
-        <v>0.1114412321123766</v>
+        <v>0.01771005136130599</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.452683323597938</v>
+        <v>3.64405453504304</v>
       </c>
       <c r="N9">
-        <v>2.089802097659685</v>
+        <v>4.902699070869687</v>
       </c>
       <c r="O9">
-        <v>3.820891310451714</v>
+        <v>5.095710698624941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01082217687547882</v>
+        <v>0.02291203642342765</v>
       </c>
       <c r="D10">
-        <v>0.143355955445476</v>
+        <v>0.03737667872645911</v>
       </c>
       <c r="E10">
-        <v>0.1072463413851232</v>
+        <v>0.01873199532075209</v>
       </c>
       <c r="F10">
-        <v>1.498388701719477</v>
+        <v>1.898887271633029</v>
       </c>
       <c r="G10">
-        <v>0.002410032457149093</v>
+        <v>0.0007380867226402279</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8805504301261919</v>
+        <v>1.415542600029724</v>
       </c>
       <c r="J10">
-        <v>0.107664179182585</v>
+        <v>0.01314055014253057</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.661780514785562</v>
+        <v>4.317899976939373</v>
       </c>
       <c r="N10">
-        <v>2.350816333304238</v>
+        <v>5.701235280541823</v>
       </c>
       <c r="O10">
-        <v>3.999363216879658</v>
+        <v>6.046887599352431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01130403021591064</v>
+        <v>0.02443559182536603</v>
       </c>
       <c r="D11">
-        <v>0.142512367649321</v>
+        <v>0.0363189434049711</v>
       </c>
       <c r="E11">
-        <v>0.1060538909735231</v>
+        <v>0.01718548713972456</v>
       </c>
       <c r="F11">
-        <v>1.521107967837082</v>
+        <v>2.034786067474457</v>
       </c>
       <c r="G11">
-        <v>0.002407209822184543</v>
+        <v>0.0007333739331455316</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9010992244748763</v>
+        <v>1.521511286209403</v>
       </c>
       <c r="J11">
-        <v>0.1060367339144976</v>
+        <v>0.01130543226366676</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.756707513715611</v>
+        <v>4.625378501087198</v>
       </c>
       <c r="N11">
-        <v>2.46966906419766</v>
+        <v>6.066138408188863</v>
       </c>
       <c r="O11">
-        <v>4.083354593130366</v>
+        <v>6.49579496379431</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01148601625681778</v>
+        <v>0.02501404495904325</v>
       </c>
       <c r="D12">
-        <v>0.1421994861815872</v>
+        <v>0.03592850709005502</v>
       </c>
       <c r="E12">
-        <v>0.1056115221743967</v>
+        <v>0.01662007529673315</v>
       </c>
       <c r="F12">
-        <v>1.529864966532756</v>
+        <v>2.087137899163451</v>
       </c>
       <c r="G12">
-        <v>0.00240616136486588</v>
+        <v>0.0007316005001742137</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9089691419266899</v>
+        <v>1.562240219863057</v>
       </c>
       <c r="J12">
-        <v>0.1054335652627474</v>
+        <v>0.01064862448406245</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.792623980930188</v>
+        <v>4.741992207599665</v>
       </c>
       <c r="N12">
-        <v>2.51468852519406</v>
+        <v>6.204592746680532</v>
       </c>
       <c r="O12">
-        <v>4.115566264745098</v>
+        <v>6.66845235211207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01144684378085259</v>
+        <v>0.02488939174252636</v>
       </c>
       <c r="D13">
-        <v>0.1422665788642348</v>
+        <v>0.03601213874054565</v>
       </c>
       <c r="E13">
-        <v>0.1057063853499809</v>
+        <v>0.01674092650579306</v>
       </c>
       <c r="F13">
-        <v>1.527972138919353</v>
+        <v>2.075821575203861</v>
       </c>
       <c r="G13">
-        <v>0.002406386262673441</v>
+        <v>0.0007319819681315166</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9072702668385659</v>
+        <v>1.553440495133501</v>
       </c>
       <c r="J13">
-        <v>0.1055628844276564</v>
+        <v>0.01078833267570278</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.784890118116863</v>
+        <v>4.716868689723313</v>
       </c>
       <c r="N13">
-        <v>2.504992288223264</v>
+        <v>6.17476133882866</v>
       </c>
       <c r="O13">
-        <v>4.10861080482789</v>
+        <v>6.631143212563643</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01131901198759522</v>
+        <v>0.02448314914140326</v>
       </c>
       <c r="D14">
-        <v>0.1424864951362286</v>
+        <v>0.0362866171722338</v>
       </c>
       <c r="E14">
-        <v>0.1060173128123711</v>
+        <v>0.01713855759373129</v>
       </c>
       <c r="F14">
-        <v>1.521825325449427</v>
+        <v>2.039074590141482</v>
       </c>
       <c r="G14">
-        <v>0.002407123156445686</v>
+        <v>0.0007332278164321298</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9017449093747985</v>
+        <v>1.524849573822266</v>
       </c>
       <c r="J14">
-        <v>0.1059868477920407</v>
+        <v>0.01125061382276149</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.759663006085361</v>
+        <v>4.634968543288281</v>
       </c>
       <c r="N14">
-        <v>2.473372615325957</v>
+        <v>6.077523425155277</v>
       </c>
       <c r="O14">
-        <v>4.085996514550231</v>
+        <v>6.509944117375539</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01124064851521922</v>
+        <v>0.0242345214944919</v>
       </c>
       <c r="D15">
-        <v>0.142622055176469</v>
+        <v>0.03645607088810854</v>
       </c>
       <c r="E15">
-        <v>0.1062089617409128</v>
+        <v>0.01738479017810635</v>
       </c>
       <c r="F15">
-        <v>1.518080269959796</v>
+        <v>2.016685290402037</v>
       </c>
       <c r="G15">
-        <v>0.002407577180612424</v>
+        <v>0.0007339923459010732</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8983720167590974</v>
+        <v>1.507417452415226</v>
       </c>
       <c r="J15">
-        <v>0.1062482466045118</v>
+        <v>0.0115388338891691</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.744206643302647</v>
+        <v>4.584826918253171</v>
       </c>
       <c r="N15">
-        <v>2.45400615902696</v>
+        <v>6.017999164047751</v>
       </c>
       <c r="O15">
-        <v>4.072197560400582</v>
+        <v>6.43606389426543</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.010790619489363</v>
+        <v>0.02281266205321941</v>
       </c>
       <c r="D16">
-        <v>0.1434120052682972</v>
+        <v>0.03744719698338006</v>
       </c>
       <c r="E16">
-        <v>0.1073255552976518</v>
+        <v>0.01883582137602957</v>
       </c>
       <c r="F16">
-        <v>1.496925401401029</v>
+        <v>1.890124364019144</v>
       </c>
       <c r="G16">
-        <v>0.00241021978539305</v>
+        <v>0.0007383963661741211</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8792198733739696</v>
+        <v>1.40869707172557</v>
       </c>
       <c r="J16">
-        <v>0.1077723678236264</v>
+        <v>0.01326563838964212</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.655572713001007</v>
+        <v>4.297828025524083</v>
       </c>
       <c r="N16">
-        <v>2.343051004704932</v>
+        <v>5.677424174893758</v>
       </c>
       <c r="O16">
-        <v>3.993930837959624</v>
+        <v>6.017904483399548</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01051368827565113</v>
+        <v>0.02194273730094665</v>
       </c>
       <c r="D17">
-        <v>0.1439083190415928</v>
+        <v>0.03807280532699364</v>
       </c>
       <c r="E17">
-        <v>0.1080268913235405</v>
+        <v>0.01976061005174268</v>
       </c>
       <c r="F17">
-        <v>1.484220328986396</v>
+        <v>1.813949459652534</v>
       </c>
       <c r="G17">
-        <v>0.002411877408996095</v>
+        <v>0.0007411196786055723</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8676276805007461</v>
+        <v>1.349121971815691</v>
       </c>
       <c r="J17">
-        <v>0.1087306532838053</v>
+        <v>0.01438947373920429</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.601147495867295</v>
+        <v>4.122033611065518</v>
       </c>
       <c r="N17">
-        <v>2.275010344358236</v>
+        <v>5.468938877383778</v>
       </c>
       <c r="O17">
-        <v>3.946636799236046</v>
+        <v>5.765756750905098</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01035409261719877</v>
+        <v>0.0214431365020431</v>
       </c>
       <c r="D18">
-        <v>0.1441980896884514</v>
+        <v>0.03843898154515157</v>
       </c>
       <c r="E18">
-        <v>0.1084362809483383</v>
+        <v>0.02030484941600363</v>
       </c>
       <c r="F18">
-        <v>1.477012639847317</v>
+        <v>1.770640425876167</v>
       </c>
       <c r="G18">
-        <v>0.002412844267450758</v>
+        <v>0.000742694460464747</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8610176654635211</v>
+        <v>1.315194622056922</v>
       </c>
       <c r="J18">
-        <v>0.1092903724761527</v>
+        <v>0.01505860018577776</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.569825602467191</v>
+        <v>4.021007185860213</v>
       </c>
       <c r="N18">
-        <v>2.23588632496768</v>
+        <v>5.349176059653075</v>
       </c>
       <c r="O18">
-        <v>3.919698239223635</v>
+        <v>5.622232007796185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01030000278318255</v>
+        <v>0.02127410084754899</v>
       </c>
       <c r="D19">
-        <v>0.1442969405230428</v>
+        <v>0.038564040929014</v>
       </c>
       <c r="E19">
-        <v>0.1085759231296799</v>
+        <v>0.02049119949268507</v>
       </c>
       <c r="F19">
-        <v>1.474589374899978</v>
+        <v>1.756060314718695</v>
       </c>
       <c r="G19">
-        <v>0.002413173940212523</v>
+        <v>0.0007432291411503775</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8587894861112915</v>
+        <v>1.303763387820766</v>
       </c>
       <c r="J19">
-        <v>0.1094813485190222</v>
+        <v>0.01528896843138128</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.559217546525247</v>
+        <v>3.986814912960966</v>
       </c>
       <c r="N19">
-        <v>2.22264165066963</v>
+        <v>5.308651539453024</v>
       </c>
       <c r="O19">
-        <v>3.91062251474716</v>
+        <v>5.573885673472546</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01054320041282608</v>
+        <v>0.02203526167994596</v>
       </c>
       <c r="D20">
-        <v>0.143855040194514</v>
+        <v>0.03800554915900856</v>
       </c>
       <c r="E20">
-        <v>0.1079516118286188</v>
+        <v>0.01966088024878965</v>
       </c>
       <c r="F20">
-        <v>1.485562456189982</v>
+        <v>1.822005421560732</v>
       </c>
       <c r="G20">
-        <v>0.002411699562096265</v>
+        <v>0.0007408289177839467</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8688557329248425</v>
+        <v>1.355428267330439</v>
       </c>
       <c r="J20">
-        <v>0.1086277580094119</v>
+        <v>0.01426746598526396</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.606943030065082</v>
+        <v>4.140738047830055</v>
       </c>
       <c r="N20">
-        <v>2.282252263305168</v>
+        <v>5.491116463647586</v>
       </c>
       <c r="O20">
-        <v>3.951644016177795</v>
+        <v>5.792440340914482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0113565723817004</v>
+        <v>0.02460242852888683</v>
       </c>
       <c r="D21">
-        <v>0.1424217222347988</v>
+        <v>0.03620571877997403</v>
       </c>
       <c r="E21">
-        <v>0.105925736417535</v>
+        <v>0.01702120445335531</v>
       </c>
       <c r="F21">
-        <v>1.523626614454457</v>
+        <v>2.049843001603222</v>
       </c>
       <c r="G21">
-        <v>0.002406906159684641</v>
+        <v>0.0007328615892528978</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9033654330135192</v>
+        <v>1.533230467444923</v>
       </c>
       <c r="J21">
-        <v>0.1058619632128321</v>
+        <v>0.01111377034546157</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.767073664613548</v>
+        <v>4.659019394856415</v>
       </c>
       <c r="N21">
-        <v>2.482659773179762</v>
+        <v>6.106076823797991</v>
       </c>
       <c r="O21">
-        <v>4.092627839675799</v>
+        <v>6.54546803198275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01188535033613647</v>
+        <v>0.02628923267766226</v>
       </c>
       <c r="D22">
-        <v>0.1415232395141148</v>
+        <v>0.03508852584811928</v>
       </c>
       <c r="E22">
-        <v>0.1046552631894868</v>
+        <v>0.01541452501761764</v>
       </c>
       <c r="F22">
-        <v>1.549400101355033</v>
+        <v>2.203993694579736</v>
       </c>
       <c r="G22">
-        <v>0.002403892330147814</v>
+        <v>0.0007277189443537819</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9264358581785501</v>
+        <v>1.652978202278177</v>
       </c>
       <c r="J22">
-        <v>0.1041307966227327</v>
+        <v>0.009276427332576276</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.871550299196741</v>
+        <v>4.998809354610074</v>
       </c>
       <c r="N22">
-        <v>2.613708692680348</v>
+        <v>6.509602644492873</v>
       </c>
       <c r="O22">
-        <v>4.187136482930725</v>
+        <v>7.053336228003388</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01160338984271903</v>
+        <v>0.02538801182936368</v>
       </c>
       <c r="D23">
-        <v>0.1419992772319489</v>
+        <v>0.03567925141178829</v>
       </c>
       <c r="E23">
-        <v>0.1053284323419059</v>
+        <v>0.01626075335566146</v>
       </c>
       <c r="F23">
-        <v>1.53556197464647</v>
+        <v>2.121201870088242</v>
       </c>
       <c r="G23">
-        <v>0.00240549001961083</v>
+        <v>0.0007304583063448225</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9140752865017276</v>
+        <v>1.588715092021175</v>
       </c>
       <c r="J23">
-        <v>0.1050477389061326</v>
+        <v>0.01023548296695287</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.815806314762682</v>
+        <v>4.817344141077712</v>
       </c>
       <c r="N23">
-        <v>2.543760284409359</v>
+        <v>6.294072495669866</v>
       </c>
       <c r="O23">
-        <v>4.136477876668323</v>
+        <v>6.780718750696906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01052985917290528</v>
+        <v>0.02199342978006058</v>
       </c>
       <c r="D24">
-        <v>0.1438791137516173</v>
+        <v>0.03803593543688688</v>
       </c>
       <c r="E24">
-        <v>0.1079856264326651</v>
+        <v>0.01970592904665058</v>
       </c>
       <c r="F24">
-        <v>1.484955379571375</v>
+        <v>1.818361818739632</v>
       </c>
       <c r="G24">
-        <v>0.002411779923527806</v>
+        <v>0.0007409603421916617</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8683003607368818</v>
+        <v>1.35257619016329</v>
       </c>
       <c r="J24">
-        <v>0.1086742495931841</v>
+        <v>0.01432255422328588</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.604322968870179</v>
+        <v>4.13228165013885</v>
       </c>
       <c r="N24">
-        <v>2.278978211791753</v>
+        <v>5.481089673903568</v>
       </c>
       <c r="O24">
-        <v>3.94937947048345</v>
+        <v>5.780372234586935</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.009359961063456268</v>
+        <v>0.01835970309295476</v>
       </c>
       <c r="D25">
-        <v>0.1460714127853679</v>
+        <v>0.04081924212539723</v>
       </c>
       <c r="E25">
-        <v>0.1110811530826048</v>
+        <v>0.02388903175360424</v>
       </c>
       <c r="F25">
-        <v>1.434184538676519</v>
+        <v>1.510650823160404</v>
       </c>
       <c r="G25">
-        <v>0.002419078777137697</v>
+        <v>0.0007526146679911784</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8211206256214325</v>
+        <v>1.110567096481788</v>
       </c>
       <c r="J25">
-        <v>0.1129122541046845</v>
+        <v>0.01958971451440439</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.375527898481025</v>
+        <v>3.396484632880799</v>
       </c>
       <c r="N25">
-        <v>1.993811236618569</v>
+        <v>4.609861442150191</v>
       </c>
       <c r="O25">
-        <v>3.757633974406986</v>
+        <v>4.757764842246615</v>
       </c>
     </row>
   </sheetData>
